--- a/stock_historical_data/1wk/JINDRILL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDRILL.NS.xlsx
@@ -55057,7 +55057,9 @@
       <c r="P1030" t="n">
         <v>0</v>
       </c>
-      <c r="Q1030" t="inlineStr"/>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDRILL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDRILL.NS.xlsx
@@ -58205,7 +58205,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDRILL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDRILL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1031"/>
+  <dimension ref="A1:R1033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -58208,6 +58208,114 @@
       <c r="R1031" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>658.9000244140625</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>671.5</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>622.4000244140625</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>630.4500122070312</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>630.4500122070312</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>160592</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>637.7999877929688</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>654</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>607.0499877929688</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>630.5999755859375</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>630.5999755859375</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>458430</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDRILL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDRILL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1033"/>
+  <dimension ref="A1:R1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -58141,7 +58141,7 @@
         <v>23</v>
       </c>
       <c r="O1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1030" t="n">
         <v>0</v>
@@ -58261,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58315,7 +58317,1829 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>631.1936682338979</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>651.1276893561583</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>623.4998280305056</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>630.8939208984375</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>190055</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>630.7939570288602</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>661.7691083768869</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>625.5981129925899</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>643.1340942382812</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>291378</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>651.4773841808745</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>654.3750840571538</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>603.6157544148109</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>614.3071899414062</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>178020</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>605.1645606993916</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>622.600524720643</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>575.4384070544304</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>606.0138549804688</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>211361</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>614.4071544032325</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>706.2334558303621</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>598.5198745734829</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>665.0664672851562</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>2501879</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>631.4934397792575</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>657.4726002765054</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>616.5054625693068</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>633.8915405273438</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>231856</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>633.3419123483067</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>644.4829994464086</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>615.55619215773</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>635.5401611328125</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>120361</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>643.5999755859375</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>684.8499755859375</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>636.5499877929688</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>673.4000244140625</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>200328</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>643.5999755859375</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>651</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>157411</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>697</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>645.0999755859375</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>290255</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>663.6500244140625</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>665.0499877929688</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>622.7999877929688</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>626.9500122070312</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>119300</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>629.5499877929688</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>643.5499877929688</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>631.0999755859375</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>140247</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>629</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>607.2000122070312</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>90182</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>645</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>602.0499877929688</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>91423</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>600.2999877929688</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>615.2000122070312</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>580.8499755859375</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>70561</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>664</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>639.25</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>461819</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>663.9000244140625</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>582.0999755859375</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>254805</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>691.9500122070312</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>570.0999755859375</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>681.1500244140625</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>264233</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>690.7999877929688</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>779</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>680.2999877929688</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>727.3499755859375</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>810045</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>733.4000244140625</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>775</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>687.9000244140625</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>710.9500122070312</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>267912</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>721</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>804.4000244140625</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>721</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>742.7999877929688</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>480278</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>764.9000244140625</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>859.8499755859375</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>743.9500122070312</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>853.9500122070312</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>868756</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>848.8499755859375</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>853.7999877929688</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>755.1500244140625</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>809</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>692662</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>815.7000122070312</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>832</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>754.3499755859375</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>765.4500122070312</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>495587</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>769.5999755859375</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>804.5499877929688</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>730.0499877929688</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>766.5</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>694579</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>770.9500122070312</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>799.0999755859375</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>736.0499877929688</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>766.0499877929688</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>715331</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>766.2000122070312</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>810</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>747.5999755859375</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>781.7999877929688</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>392726</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>786.0999755859375</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>800</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>721.0499877929688</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>731</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>500885</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>729</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>744.9500122070312</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>697</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>736.4500122070312</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>291115</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>736.4500122070312</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>810</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>717.3499755859375</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>771.9000244140625</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>916291</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>773.8499755859375</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>977.7000122070312</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>752.4000244140625</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>907.75</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>4799437</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>892.7000122070312</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>990.3499755859375</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>866</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>2267041</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>924.7999877929688</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>939</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>814.4000244140625</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>835.25</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>1421063</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>837</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>956.7000122070312</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>810.7999877929688</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>821.2000122070312</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>2651836</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>801</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>887.9000244140625</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>756</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>781.7999877929688</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>3980212</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JINDRILL.NS.xlsx
+++ b/stock_historical_data/1wk/JINDRILL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1068"/>
+  <dimension ref="A1:R1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58371,7 +58371,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58423,7 +58425,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58475,7 +58479,9 @@
       <c r="Q1036" t="n">
         <v>1</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58527,7 +58533,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58579,7 +58587,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58631,7 +58641,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58683,7 +58695,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58735,7 +58749,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58787,7 +58803,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58839,7 +58857,9 @@
       <c r="Q1043" t="n">
         <v>1</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58891,7 +58911,9 @@
       <c r="Q1044" t="n">
         <v>2</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58943,7 +58965,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58995,7 +59019,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59047,7 +59073,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59099,7 +59127,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59151,7 +59181,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59203,7 +59235,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59255,7 +59289,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59307,7 +59343,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59359,7 +59397,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59411,7 +59451,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59463,7 +59505,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59515,7 +59559,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59567,7 +59613,9 @@
       <c r="Q1057" t="n">
         <v>1</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59619,7 +59667,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59671,7 +59721,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59723,7 +59775,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59775,7 +59829,9 @@
       <c r="Q1061" t="n">
         <v>2</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59827,7 +59883,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59879,7 +59937,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -59931,7 +59991,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -59975,7 +60037,7 @@
         <v>6</v>
       </c>
       <c r="O1065" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1065" t="n">
         <v>0</v>
@@ -59983,7 +60045,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60035,7 +60099,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60087,7 +60153,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60139,7 +60207,217 @@
       <c r="Q1068" t="n">
         <v>1</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>792.2000122070312</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>910</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>761.6500244140625</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>897.6500244140625</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>2730428</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>899.0999755859375</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>951</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>811.7000122070312</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>882.4500122070312</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>2533414</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>975</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>882.4500122070312</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>924.6500244140625</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>3376376</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>926.9500122070312</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>954</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>825.2999877929688</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>833.6500244140625</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>2237744</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
